--- a/Data_Entry.xlsx
+++ b/Data_Entry.xlsx
@@ -1,69 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anubhab\Desktop\Github\Variety_assessment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D5DCBC-5FB8-4A97-8E65-CD943B975D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Favorite Colour</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -402,36 +420,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Favorite Colour</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Children</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Aubhab</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>gghh</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Entry.xlsx
+++ b/Data_Entry.xlsx
@@ -436,67 +436,75 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>State Change</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Favorite Colour</t>
+          <t>Phenomena</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Physical effect</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>oRgan</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Part</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Children</t>
+          <t>Input</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aubhab</t>
+          <t>saFfa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gghh</t>
+          <t>sdGsDG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
+          <t>sgsd</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sdfzg</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>sdgS</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SDG</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>GDSg</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_Entry.xlsx
+++ b/Data_Entry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,40 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Concept ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>State Change</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Phenomena</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Physical effect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>oRgan</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Part</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Input</t>
         </is>
@@ -473,37 +478,126 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>saFfa</t>
+          <t>Concept 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sdGsDG</t>
+          <t>scf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sgsd</t>
+          <t>SCF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sdfzg</t>
+          <t>sc</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sdgS</t>
+          <t>sc</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SDG</t>
+          <t>c</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>GDSg</t>
+          <t>sc</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ASF</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>AFS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ACS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CAS</t>
         </is>
       </c>
     </row>

--- a/Data_Entry.xlsx
+++ b/Data_Entry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,6 +601,90 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>asBfh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ASF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SDV</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SDV</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SDV</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SDV</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SDV</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Concept 4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>fsd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>VSD</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dSV</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SDV</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>VSD</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SDV</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SDV</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data_Entry.xlsx
+++ b/Data_Entry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,79 +483,79 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>scf</t>
+          <t>sdss</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SCF</t>
+          <t>sfds</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sc</t>
+          <t>sFD</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sc</t>
+          <t>SFDd</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>sDF</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sc</t>
+          <t>sDSDF</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>cs</t>
+          <t>SDF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Concept 2</t>
+          <t>Concept 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>SFSDSFVdS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AF</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AF</t>
+          <t>EF</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AF</t>
+          <t>SEFS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AF</t>
+          <t>SFe</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ASF</t>
+          <t>EF</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>EF</t>
         </is>
       </c>
     </row>
@@ -567,121 +567,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>sFD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS</t>
+          <t>SDF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>ASDF</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>SDF</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ACS</t>
+          <t>DSF</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Concept 3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>asBfh</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ASF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SDV</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SDV</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>SDV</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>SDV</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>SDV</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Concept 4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>fsd</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>VSD</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>dSV</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SDV</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>VSD</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>SDV</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>SDV</t>
+          <t>SDF</t>
         </is>
       </c>
     </row>

--- a/Data_Entry.xlsx
+++ b/Data_Entry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,121 +483,79 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sdss</t>
+          <t>sdfs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sfds</t>
+          <t>sdfs</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sFD</t>
+          <t>sf</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SFDd</t>
+          <t>sdfs</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>sDF</t>
+          <t>sfdsd</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sDSDF</t>
+          <t>sdfsd</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>SDF</t>
+          <t>sdfsf</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Concept 1</t>
+          <t>Concept 2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SFSDSFVdS</t>
+          <t>SDF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>SDfg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EF</t>
+          <t>SDGSGeS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SEFS</t>
+          <t>SEGS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SFe</t>
+          <t>SEG</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>EF</t>
+          <t>SEG</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EF</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Concept 2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>sFD</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SDF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ASDF</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>SDF</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>DSF</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>SDF</t>
+          <t>SEG</t>
         </is>
       </c>
     </row>

--- a/Data_Entry.xlsx
+++ b/Data_Entry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,37 +483,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sdfs</t>
+          <t>AnibjhS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sdfs</t>
+          <t>VSEv</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sf</t>
+          <t>SVe</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sdfs</t>
+          <t>SDVB</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>sfdsd</t>
+          <t>FB</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sdfsd</t>
+          <t>FBFB</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>sdfsf</t>
+          <t>BFf</t>
         </is>
       </c>
     </row>
@@ -525,37 +525,79 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SDF</t>
+          <t>FB</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SDfg</t>
+          <t>FB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SDGSGeS</t>
+          <t>FB</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SEGS</t>
+          <t>BF</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SEG</t>
+          <t>BF</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SEG</t>
+          <t>BF</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SEG</t>
+          <t>DFb</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dhgzdf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>zdb</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>zdb</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>zdfb</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>zdfb</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>zdfb</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>zdfb</t>
         </is>
       </c>
     </row>

--- a/Data_Entry.xlsx
+++ b/Data_Entry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,121 +483,247 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AnibjhS</t>
+          <t>transfer force to wedge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>VSEv</t>
+          <t>orientation changes by theta</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SVe</t>
+          <t>lever rotates</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SDVB</t>
+          <t>lever effect</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FB</t>
+          <t>1 dof</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FBFB</t>
+          <t>lever</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>BFf</t>
+          <t>force</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Concept 2</t>
+          <t>Concept 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FB</t>
+          <t>transfer force to tie-rod</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FB</t>
+          <t>position changes by x</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FB</t>
+          <t>wedge translates</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BF</t>
+          <t>wedge effect</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BF</t>
+          <t>1 dof</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BF</t>
+          <t>wedge</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>DFb</t>
+          <t>force</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Concept 3</t>
+          <t>Concept 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dhgzdf</t>
+          <t>door gets unlocked</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>zdb</t>
+          <t>position changes by x</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>zdb</t>
+          <t>tie-rod translates</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>zdfb</t>
+          <t>newton's 2nd law of motion</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>zdfb</t>
+          <t>1 dof</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>zdfb</t>
+          <t>tie-rod</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>zdfb</t>
+          <t>force</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>transfer torque to pinion</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>orientation changes by theta</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>cbelt rotates</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>friction effect</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>friction between belt and wheel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>cbelt</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>transfer forcce to rack</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>orientation changes by theta</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>pinion rotates</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>newton's 2nd law of motion</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0 dof</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>pinion</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>door gets unlocked</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>position changes by x</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>rack translates</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>gear effect</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1 dof</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>rack</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>force</t>
         </is>
       </c>
     </row>

--- a/Data_Entry.xlsx
+++ b/Data_Entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anubhab\Desktop\Github\Variety_assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C245B0CB-375A-47A1-94AE-4E082E0F1262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F119BD72-5ED8-4CFC-B994-AAE506B08EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="3645" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Concept ID</t>
   </si>
   <si>
+    <t>Instance ID</t>
+  </si>
+  <si>
     <t>Action</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>Concept 1</t>
   </si>
   <si>
+    <t>Instance 1</t>
+  </si>
+  <si>
     <t>transfer force to wedge</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>force</t>
   </si>
   <si>
+    <t>Instance 2</t>
+  </si>
+  <si>
     <t>transfer force to tie-rod</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
   </si>
   <si>
     <t>wedge</t>
+  </si>
+  <si>
+    <t>Instance 3</t>
   </si>
   <si>
     <t>door gets unlocked</t>
@@ -499,15 +511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H7"/>
+      <selection activeCell="A2" sqref="A2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,161 +544,182 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Entry.xlsx
+++ b/Data_Entry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1420,6 +1420,100 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Instance 1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>grgrz</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>zgbrzhb</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>zrdbzdzbzb</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>zbr</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>zbrzb</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>zbr</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>bzrbzrn</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Instance 1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>dnzxtn</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>znn</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>zn rtsn</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">stn </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">stn </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>gfsn</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
